--- a/biology/Zoologie/Chabot_(poisson)/Chabot_(poisson).xlsx
+++ b/biology/Zoologie/Chabot_(poisson)/Chabot_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de chabot désigne plusieurs espèces de poissons. 
 Cette espèce est longtemps restée relativement mal connue. En France, huit nouvelles espèces de poissons d'eau douce sont apparues dans la nomenclature en 2005 dont cinq étaient des chabots (les autres étant des goujons) : Gobio alverniae, Gobio occitaniae et Gobio lozanoi. 
-La révision de la nomenclature des chabots par Freyhof, Kotellat et Nolte, publiée en 2005 a ajouté 5 nouvelles espèces des fleuves et rivières de France (dont deux sont endémiques)[1] : 
-Cottus aturi (trouvé dans les Hautes-Pyrénées et les Pyrénées-Atlantiques[2]);
-Cottus hispaniolensis (identifié dans la Haute-Garonne en 2003[3]);
-Cottus duranii (trouvé dans le Massif central, départements de la Loire, de la Haute-Loire, de la Lozère et du Cantal[4])
-Cottus perifretum (chabot celtique, ou chabot fluviatile, connu à ce jour seulement dans 8 départements français du Centre et Centre-Sud-Ouest [5])
-Cottus rondeleti (qui semble endémique du département de l'Hérault [6])
+La révision de la nomenclature des chabots par Freyhof, Kotellat et Nolte, publiée en 2005 a ajouté 5 nouvelles espèces des fleuves et rivières de France (dont deux sont endémiques) : 
+Cottus aturi (trouvé dans les Hautes-Pyrénées et les Pyrénées-Atlantiques);
+Cottus hispaniolensis (identifié dans la Haute-Garonne en 2003);
+Cottus duranii (trouvé dans le Massif central, départements de la Loire, de la Haute-Loire, de la Lozère et du Cantal)
+Cottus perifretum (chabot celtique, ou chabot fluviatile, connu à ce jour seulement dans 8 départements français du Centre et Centre-Sud-Ouest )
+Cottus rondeleti (qui semble endémique du département de l'Hérault )
 </t>
         </is>
       </c>
@@ -518,11 +530,48 @@
           <t>Listes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ci-dessous, une première liste les classe par leurs noms vernaculaires, et la seconde par leurs noms scientifiques.
-Liste des noms vernaculaires
-Chabot Philipousys : Cottus confusus no passus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, une première liste les classe par leurs noms vernaculaires, et la seconde par leurs noms scientifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chabot_(poisson)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chabot_(poisson)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Listes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chabot Philipousys : Cottus confusus no passus.
 Chabot à tête courte : Cottus confusus.
 Chabot à tête plate : Cottus ricei.
 Chabot commun : Cottus gobio.
@@ -544,9 +593,43 @@
 Requin-chabot marquéterie : Hemiscyllium trispeculare.
 Requin-chabot moine : Hemiscyllium strahani.
 Requin-chabot ocellé : Hemiscyllium ocellatum.
-Requin-chabot taches blanches : Chiloscyllium plagiosum.
-Liste des espèces
-Chiloscyllium arabicum : requin-chabot camot.
+Requin-chabot taches blanches : Chiloscyllium plagiosum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chabot_(poisson)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chabot_(poisson)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Listes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chiloscyllium arabicum : requin-chabot camot.
 Chiloscyllium caerulopunctatum : requin-chabot à taches bleues.
 Chiloscyllium griseum : requin-chabot gris.
 Chiloscyllium indicum : requin-chabot élégant.
